--- a/biology/Médecine/1494_en_santé_et_médecine/1494_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1494_en_santé_et_médecine/1494_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1494_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1494_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1494 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1494_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1494_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le registre ouvert par les doyens de la faculté de médecine de Paris commence seulement à consigner officiellement les dissections, alors que la pratique en est attestée dès 1407 et que, en 1478, Louis XI a accordé aux régents un cadavre de supplicié par an[1].
-L'emploi du mercure dans le traitement de la vérole est attesté pour la première fois, à Pérouse[2].
-Jérôme Bosch peint la Lithotomie, ou Extraction de la pierre de folie, transposition métaphorique de l'opération de la taille[3].
-1494-1495 : épidémie en Islande, dite « Seconde Peste » par référence à la peste noire qui a fait des ravages entre 1402 et 1404[4].
-1494-1496 : épidémie de « mal des Français » à Naples et en Italie[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le registre ouvert par les doyens de la faculté de médecine de Paris commence seulement à consigner officiellement les dissections, alors que la pratique en est attestée dès 1407 et que, en 1478, Louis XI a accordé aux régents un cadavre de supplicié par an.
+L'emploi du mercure dans le traitement de la vérole est attesté pour la première fois, à Pérouse.
+Jérôme Bosch peint la Lithotomie, ou Extraction de la pierre de folie, transposition métaphorique de l'opération de la taille.
+1494-1495 : épidémie en Islande, dite « Seconde Peste » par référence à la peste noire qui a fait des ravages entre 1402 et 1404.
+1494-1496 : épidémie de « mal des Français » à Naples et en Italie.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1494_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1494_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Édition à Venise, chez Jean et Grégoire de Grégoriis, du Fasiculo de medicina, traduction en italien d'un recueil de traités médicaux de Johann de Ketham (de) (1415-1470), paru en latin à titre posthume en 1491 sous le titre de Fasciculus medicinae (en), premier livre imprimé qui contienne des planches anatomiques[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Édition à Venise, chez Jean et Grégoire de Grégoriis, du Fasiculo de medicina, traduction en italien d'un recueil de traités médicaux de Johann de Ketham (de) (1415-1470), paru en latin à titre posthume en 1491 sous le titre de Fasciculus medicinae (en), premier livre imprimé qui contienne des planches anatomiques.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1494_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1494_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,11 +591,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Adolphe Occon (mort en 1572), né à Brixen au Tyrol, reçu docteur en médecine à Bologne, médecin de la ville et de l'hôpital d'Augsbourg en Souabe. Adopté par son cousin, Adolphe Occon (1447-1503), également médecin, il est père d'un troisième Adolphe Occon (1524-1605), médecin lui aussi[7].
-1483 ou 1494 : François Rabelais (mort en 1553), médecin et écrivain humaniste français[8].
-Vers 1494 : Georgius Agricola (mort en 1555), médecin, alchimiste et minéralogiste allemand, auteur du De mensuris et ponderibus Romanorum et Græcorum et du De re metallica, respectivement imprimés à Bâle en 1550 et 1556[9].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Adolphe Occon (mort en 1572), né à Brixen au Tyrol, reçu docteur en médecine à Bologne, médecin de la ville et de l'hôpital d'Augsbourg en Souabe. Adopté par son cousin, Adolphe Occon (1447-1503), également médecin, il est père d'un troisième Adolphe Occon (1524-1605), médecin lui aussi.
+1483 ou 1494 : François Rabelais (mort en 1553), médecin et écrivain humaniste français.
+Vers 1494 : Georgius Agricola (mort en 1555), médecin, alchimiste et minéralogiste allemand, auteur du De mensuris et ponderibus Romanorum et Græcorum et du De re metallica, respectivement imprimés à Bâle en 1550 et 1556.</t>
         </is>
       </c>
     </row>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1494_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1494_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,11 +625,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">24 juillet : Antonio Torriani (della Torre) da L'Aquila (né en 1424), médecin padouan, entré en religion et béatifié par l'Église catholique[10].
-Nicolas Barbaro (né en 1420), chirurgien vénitien, connu pour avoir rédigé la chronique de la chute de Constantinople[11] dont il a été le témoin oculaire[12].
-Entre 1492 et 1494 : Paolo Bagellardo (it) (né entre 1410 et 1420), professeur de philosophie et de médecine à Padoue, auteur en 1472 du Libellus de egritudinibus infantium (« Petit traité sur les maladies infantiles »), premier ouvrage de pédiatrie qui ait été imprimé[13].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24 juillet : Antonio Torriani (della Torre) da L'Aquila (né en 1424), médecin padouan, entré en religion et béatifié par l'Église catholique.
+Nicolas Barbaro (né en 1420), chirurgien vénitien, connu pour avoir rédigé la chronique de la chute de Constantinople dont il a été le témoin oculaire.
+Entre 1492 et 1494 : Paolo Bagellardo (it) (né entre 1410 et 1420), professeur de philosophie et de médecine à Padoue, auteur en 1472 du Libellus de egritudinibus infantium (« Petit traité sur les maladies infantiles »), premier ouvrage de pédiatrie qui ait été imprimé.
 </t>
         </is>
       </c>
